--- a/bots/crawl_ch/output/vegi_coop_2022-12-18.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-12-18.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3112,7 +3112,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3522,7 +3522,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3652,7 +3652,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4265,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4683,7 +4683,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4752,7 +4752,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5158,7 +5158,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5296,7 +5296,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5365,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5572,7 +5572,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5850,7 +5850,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -5984,7 +5984,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6118,7 +6118,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6183,7 +6183,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6252,7 +6252,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6528,7 +6528,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6670,7 +6670,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6739,7 +6739,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6804,7 +6804,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -7011,7 +7011,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -7145,7 +7145,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -7214,7 +7214,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -7279,41 +7279,45 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>5699549</t>
+          <t>3689452</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Chinakohl ca. 600g</t>
+          <t>Naturaplan Bio Bohnen</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/chinakohl-ca/p/5699549</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/mais-erbsen-bohnen/naturaplan-bio-bohnen/p/3689452</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E103" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F103" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.33/100g</t>
+          <t>0.94/100g</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7323,7 +7327,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7333,56 +7337,52 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'mais-erbsen-bohnen']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Chinakohl ca. 600g 2.00 Schweizer Franken</t>
+          <t>Naturaplan Bio Bohnen 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3689452</t>
+          <t>5699549</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bohnen</t>
+          <t>Chinakohl ca. 600g</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/mais-erbsen-bohnen/naturaplan-bio-bohnen/p/3689452</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/chinakohl-ca/p/5699549</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E104" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.94/100g</t>
+          <t>0.33/100g</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7402,18 +7402,18 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'mais-erbsen-bohnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bohnen 4.70 Schweizer Franken</t>
+          <t>Chinakohl ca. 600g 2.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -7555,7 +7555,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -7622,7 +7622,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -7833,7 +7833,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -7902,7 +7902,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8028,7 +8028,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8162,7 +8162,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8304,7 +8304,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8373,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8442,7 +8442,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8576,7 +8576,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8639,7 +8639,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8712,7 +8712,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8850,7 +8850,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9138,7 +9138,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9207,7 +9207,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9329,7 +9329,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9398,7 +9398,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9540,7 +9540,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9609,7 +9609,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9678,7 +9678,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9743,7 +9743,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9810,7 +9810,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9879,7 +9879,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -9944,7 +9944,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -10013,7 +10013,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -10078,7 +10078,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -10147,7 +10147,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -10220,118 +10220,110 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>6825749</t>
+          <t>3359220</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Prix Garantie Mischsalat</t>
+          <t>Gemüsezwiebel 1 Stück</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/prix-garantie-mischsalat/p/6825749</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/gemuesezwiebel-1-stueck/p/3359220</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0.71/100g</t>
+          <t>2.70/1ST</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Prix Garantie Mischsalat 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Gemüsezwiebel 1 Stück 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>6049296</t>
+          <t>6825749</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Primagusto Fairtrade Papaya Calimosa</t>
+          <t>Prix Garantie Mischsalat</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/primagusto-fairtrade-papaya-calimosa/p/6049296</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/prix-garantie-mischsalat/p/6825749</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E147" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0.73/100g</t>
+          <t>0.71/100g</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10341,7 +10333,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -10351,83 +10343,91 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Primagusto Fairtrade Papaya Calimosa 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr"/>
+          <t>Prix Garantie Mischsalat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>3359220</t>
+          <t>6049296</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Gemüsezwiebel 1 Stück</t>
+          <t>Primagusto Fairtrade Papaya Calimosa</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/gemuesezwiebel-1-stueck/p/3359220</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/primagusto-fairtrade-papaya-calimosa/p/6049296</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E148" t="n">
-        <v>5</v>
-      </c>
-      <c r="F148" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Primagusto</t>
+        </is>
+      </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2.70/1ST</t>
+          <t>0.73/100g</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Gemüsezwiebel 1 Stück 2.70 Schweizer Franken</t>
+          <t>Primagusto Fairtrade Papaya Calimosa 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -10496,7 +10496,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -10565,7 +10565,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -10703,119 +10703,119 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>7042358</t>
+          <t>4672571</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Avocado Large 1 Stück</t>
+          <t>Mini Kefen</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/avocados/avocado-large-1-stueck/p/7042358</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/mais-erbsen-bohnen/mini-kefen/p/4672571</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>4</v>
+      </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>1.28/100g</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'avocados']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'mais-erbsen-bohnen']</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Avocado Large 1 Stück 2.60 Schweizer Franken</t>
+          <t>Mini Kefen 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>4672571</t>
+          <t>7042358</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Mini Kefen</t>
+          <t>Avocado Large 1 Stück</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/mais-erbsen-bohnen/mini-kefen/p/4672571</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/avocados/avocado-large-1-stueck/p/7042358</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>1.28/100g</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'mais-erbsen-bohnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'avocados']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Mini Kefen 3.20 Schweizer Franken</t>
+          <t>Avocado Large 1 Stück 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -10888,7 +10888,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -10957,7 +10957,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11026,7 +11026,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11091,7 +11091,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11164,7 +11164,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11302,7 +11302,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11371,7 +11371,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11440,7 +11440,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11509,7 +11509,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11578,7 +11578,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11643,7 +11643,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11708,7 +11708,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11850,7 +11850,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11919,7 +11919,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -11988,7 +11988,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -12053,7 +12053,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -12272,7 +12272,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -12341,7 +12341,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -12410,7 +12410,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -12475,7 +12475,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -12540,7 +12540,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -12609,7 +12609,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -12678,7 +12678,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -12747,7 +12747,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12816,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -12885,37 +12885,33 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>5756806</t>
+          <t>4429635</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Betty Bossi Kopfsalat mit Herzen</t>
+          <t>Kartoffeln Bintje</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-kopfsalat-mit-herzen/p/5756806</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-bintje/p/4429635</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E185" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
           <t>3.95</t>
@@ -12923,63 +12919,59 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2.19/100g</t>
+          <t>1.98/1kg</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Betty Bossi Kopfsalat mit Herzen 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Kartoffeln Bintje 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>3406199</t>
+          <t>5756806</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Betty Bossi Zitronengras 1 Pack</t>
+          <t>Betty Bossi Kopfsalat mit Herzen</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/betty-bossi-zitronengras-1-pack/p/3406199</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-kopfsalat-mit-herzen/p/5756806</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E186" t="n">
         <v>4.5</v>
@@ -12991,12 +12983,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>8.43/100g</t>
+          <t>2.19/100g</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13006,7 +12998,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13016,12 +13008,12 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Betty Bossi Zitronengras 1 Pack 2.95 Schweizer Franken</t>
+          <t>Betty Bossi Kopfsalat mit Herzen 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -13031,28 +13023,28 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>4981397</t>
+          <t>3406199</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Betty Bossi Asian Wok Shanghai</t>
+          <t>Betty Bossi Zitronengras 1 Pack</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-asian-wok-shanghai/p/4981397</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/betty-bossi-zitronengras-1-pack/p/3406199</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E187" t="n">
         <v>4.5</v>
@@ -13064,12 +13056,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>8.43/100g</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13079,7 +13071,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -13089,12 +13081,12 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Betty Bossi Asian Wok Shanghai 5.50 Schweizer Franken</t>
+          <t>Betty Bossi Zitronengras 1 Pack 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -13104,96 +13096,104 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>4429635</t>
+          <t>4981397</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Kartoffeln Bintje</t>
+          <t>Betty Bossi Asian Wok Shanghai</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-bintje/p/4429635</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-asian-wok-shanghai/p/4981397</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E188" t="n">
-        <v>5</v>
-      </c>
-      <c r="F188" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>1.98/1kg</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Kartoffeln Bintje 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N188" t="inlineStr"/>
+          <t>Betty Bossi Asian Wok Shanghai 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>6860382</t>
+          <t>3090469</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Limetten</t>
+          <t>Naturaplan Bio Äpfel Topaz ca. 1kg</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/limetten/p/6860382</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-topaz-ca/p/3090469</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -13202,67 +13202,67 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>0.55/1ST</t>
+          <t>6.60/1kg</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Limetten 0.55 Schweizer Franken</t>
+          <t>Naturaplan Bio Äpfel Topaz ca. 1kg 6.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>5756740</t>
+          <t>6860382</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Betty Bossi Nüsslisalat</t>
+          <t>Limetten</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-nuesslisalat/p/5756740</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/limetten/p/6860382</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E190" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -13271,71 +13271,67 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>3.29/100g</t>
+          <t>0.55/1ST</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>Betty Bossi Nüsslisalat 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Limetten 0.55 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>3090469</t>
+          <t>5756740</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel Topaz ca. 1kg</t>
+          <t>Betty Bossi Nüsslisalat</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-topaz-ca/p/3090469</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-nuesslisalat/p/5756740</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E191" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -13344,43 +13340,47 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>6.60/1kg</t>
+          <t>3.29/100g</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel Topaz ca. 1kg 6.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N191" t="inlineStr"/>
+          <t>Betty Bossi Nüsslisalat 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -13518,7 +13518,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -13664,7 +13664,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -13810,7 +13810,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -13875,7 +13875,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -13948,7 +13948,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -14017,7 +14017,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -14082,7 +14082,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -14228,7 +14228,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -14293,7 +14293,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -14362,7 +14362,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -14431,7 +14431,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -14482,45 +14482,45 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>6709224</t>
+          <t>3396898</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Beyond Burger 2x113g</t>
+          <t>Naturaplan Bio Kabis rot ca. 800g</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/burger-meatballs/beyond-burger-2x113g/p/6709224</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/naturaplan-bio-kabis-rot-ca/p/3396898</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>BEYOND MEAT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -14530,7 +14530,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -14540,60 +14540,56 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'burger-meatballs']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>Beyond Burger 2x113g 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kabis rot ca. 800g 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>3091438</t>
+          <t>6709224</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Baumnüsse</t>
+          <t>Beyond Burger 2x113g</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/naturaplan-bio-baumnuesse/p/3091438</t>
+          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/burger-meatballs/beyond-burger-2x113g/p/6709224</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E209" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>BEYOND MEAT</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -14603,7 +14599,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -14613,43 +14609,47 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'burger-meatballs']</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Baumnüsse 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N209" t="inlineStr"/>
+          <t>Beyond Burger 2x113g 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>3396898</t>
+          <t>3091438</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kabis rot ca. 800g</t>
+          <t>Naturaplan Bio Baumnüsse</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/naturaplan-bio-kabis-rot-ca/p/3396898</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/nuesse-kerne/naturaplan-bio-baumnuesse/p/3091438</t>
         </is>
       </c>
       <c r="D210" t="n">
+        <v>15</v>
+      </c>
+      <c r="E210" t="n">
         <v>4</v>
       </c>
-      <c r="E210" t="n">
-        <v>5</v>
-      </c>
       <c r="F210" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -14657,12 +14657,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -14672,7 +14672,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -14682,18 +14682,18 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'nuesse-kerne']</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kabis rot ca. 800g 4.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Baumnüsse 20% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14766,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -14839,7 +14839,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -14912,7 +14912,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -14981,7 +14981,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -15050,7 +15050,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -15119,7 +15119,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -15188,7 +15188,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -15261,7 +15261,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -15324,7 +15324,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -15393,7 +15393,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -15462,7 +15462,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -15535,7 +15535,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -15604,29 +15604,31 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>4337708</t>
+          <t>3394680</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Regio Äpfel säuerlich</t>
+          <t>Betty Bossi Nüsslisalat</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-regio-aepfel-saeuerlich/p/4337708</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-nuesslisalat/p/3394680</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>10</v>
+      </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -15635,12 +15637,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>2.83/100g</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -15650,7 +15652,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -15660,42 +15662,44 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Regio Äpfel säuerlich 4.85 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N224" t="inlineStr"/>
+          <t>Betty Bossi Nüsslisalat 14% Aktion 5.95 Schweizer Franken statt 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>3090590</t>
+          <t>4337708</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rettich weiss 1 Stück</t>
+          <t>Naturaplan Bio Regio Äpfel säuerlich</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/radieschen-rettich/naturaplan-bio-rettich-weiss-1-stueck/p/3090590</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-regio-aepfel-saeuerlich/p/4337708</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -15704,67 +15708,67 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2.80/1ST</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'radieschen-rettich']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rettich weiss 1 Stück 2.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Regio Äpfel säuerlich 4.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>6303848</t>
+          <t>3090590</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Betty Bossi Cindarella Salat</t>
+          <t>Naturaplan Bio Rettich weiss 1 Stück</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-cindarella-salat/p/6303848</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/radieschen-rettich/naturaplan-bio-rettich-weiss-1-stueck/p/3090590</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E226" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -15773,71 +15777,67 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>1.36/100g</t>
+          <t>2.80/1ST</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'radieschen-rettich']</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>Betty Bossi Cindarella Salat 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Rettich weiss 1 Stück 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>3394680</t>
+          <t>6303848</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Betty Bossi Nüsslisalat</t>
+          <t>Betty Bossi Cindarella Salat</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-nuesslisalat/p/3394680</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-cindarella-salat/p/6303848</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E227" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -15846,12 +15846,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2.83/100g</t>
+          <t>1.36/100g</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -15861,7 +15861,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Betty Bossi Nüsslisalat 14% Aktion 5.95 Schweizer Franken statt 6.95 Schweizer Franken</t>
+          <t>Betty Bossi Cindarella Salat 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -16028,7 +16028,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -16513,7 +16513,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -16586,101 +16586,93 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>6638724</t>
+          <t>4090187</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Betty Bossi Coleslaw Salat</t>
+          <t>Endivien-Salat Lavata 1 Stück</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-coleslaw-salat/p/6638724</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/endivien-salat-lavata-1-stueck/p/4090187</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E238" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>1.35/100g</t>
+          <t>2.70/1ST</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>Betty Bossi Coleslaw Salat 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N238" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Endivien-Salat Lavata 1 Stück 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>6114998</t>
+          <t>3090335</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kurkuma ca. 100g</t>
+          <t>Orangen Tarocco halbblut</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-kurkuma-ca/p/6114998</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/orangen-tarocco-halbblut/p/3090335</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="E239" t="n">
         <v>4.5</v>
@@ -16692,132 +16684,140 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>2.70/1kg</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kurkuma ca. 100g 2.95 Schweizer Franken</t>
+          <t>Orangen Tarocco halbblut 5.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>4090187</t>
+          <t>6638724</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Endivien-Salat Lavata 1 Stück</t>
+          <t>Betty Bossi Coleslaw Salat</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/endivien-salat-lavata-1-stueck/p/4090187</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-coleslaw-salat/p/6638724</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E240" t="n">
-        <v>4</v>
-      </c>
-      <c r="F240" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2.70/1ST</t>
+          <t>1.35/100g</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>Endivien-Salat Lavata 1 Stück 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N240" t="inlineStr"/>
+          <t>Betty Bossi Coleslaw Salat 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>6767080</t>
+          <t>6114998</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Marroni soft</t>
+          <t>Naturaplan Bio Kurkuma ca. 100g</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/marroni-soft/p/6767080</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-kurkuma-ca/p/6114998</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E241" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -16826,12 +16826,12 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>3.95/100g</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -16841,7 +16841,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -16851,52 +16851,56 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Marroni soft 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Kurkuma ca. 100g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>6300714</t>
+          <t>6767080</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Mischpilze geschnitten</t>
+          <t>Marroni soft</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/mischpilze-geschnitten/p/6300714</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/marroni-soft/p/6767080</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
       </c>
-      <c r="F242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>3.48/100g</t>
+          <t>3.95/100g</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -16906,7 +16910,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -16916,52 +16920,52 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>Mischpilze geschnitten 6.95 Schweizer Franken</t>
+          <t>Marroni soft 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>6389403</t>
+          <t>6300714</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Krautstiel</t>
+          <t>Mischpilze geschnitten</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/krautstiel/p/6389403</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/mischpilze-geschnitten/p/6300714</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E243" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>0.66/100g</t>
+          <t>3.48/100g</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -16971,7 +16975,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -16981,56 +16985,52 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Krautstiel 3.30 Schweizer Franken</t>
+          <t>Mischpilze geschnitten 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>6818092</t>
+          <t>6389403</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planted Kebab</t>
+          <t>Krautstiel</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/gehacktes-geschnetzeltes/planted-kebab/p/6818092</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/krautstiel/p/6389403</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E244" t="n">
-        <v>4</v>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Planted</t>
-        </is>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>3.40/100g</t>
+          <t>0.66/100g</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17040,7 +17040,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17050,115 +17050,115 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>Planted Kebab 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N244" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Krautstiel 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>4903240</t>
+          <t>6818092</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Fairtrade Papaya 1 Stück</t>
+          <t>Planted Kebab</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-papaya-1-stueck/p/4903240</t>
+          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/gehacktes-geschnetzeltes/planted-kebab/p/6818092</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E245" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Planted</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>3.40/100g</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>Fairtrade Papaya 1 Stück 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N245" t="inlineStr"/>
+          <t>Planted Kebab 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>3432776</t>
+          <t>4903240</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Gartensalat</t>
+          <t>Fairtrade Papaya 1 Stück</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-naturaplan-bio-gartensalat/p/3432776</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-papaya-1-stueck/p/4903240</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E246" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -17167,71 +17167,67 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Gartensalat - Online kein Bestand 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N246" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Fairtrade Papaya 1 Stück - Online kein Bestand 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>3090335</t>
+          <t>3432776</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Orangen Tarocco halbblut</t>
+          <t>Betty Bossi Naturaplan Bio Gartensalat</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/orangen-tarocco-halbblut/p/3090335</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-naturaplan-bio-gartensalat/p/3432776</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="E247" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -17240,43 +17236,47 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2.70/1kg</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>Orangen Tarocco halbblut 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N247" t="inlineStr"/>
+          <t>Betty Bossi Naturaplan Bio Gartensalat - Online kein Bestand 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -17341,7 +17341,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -17414,7 +17414,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -17483,7 +17483,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -17621,45 +17621,41 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>6497015</t>
+          <t>3663584</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Prix Garantie Orangen</t>
+          <t>Pflaumen</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/prix-garantie-orangen/p/6497015</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-gartenfruechte/pflaumen/p/3663584</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E253" t="n">
-        <v>3</v>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>1.40/1kg</t>
+          <t>2.15/1kg</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -17669,7 +17665,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -17679,156 +17675,160 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-gartenfruechte']</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Prix Garantie Orangen 3.50 Schweizer Franken</t>
+          <t>Pflaumen 2.15 Schweizer Franken</t>
         </is>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>6703995</t>
+          <t>6497015</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Planted pulled BBQ</t>
+          <t>Prix Garantie Orangen</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/gehacktes-geschnetzeltes/planted-pulled-bbq/p/6703995</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/prix-garantie-orangen/p/6497015</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E254" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Planted</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>3.86/100g</t>
+          <t>1.40/1kg</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Planted pulled BBQ 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N254" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Orangen 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>3663584</t>
+          <t>6703995</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Pflaumen</t>
+          <t>Planted pulled BBQ</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-gartenfruechte/pflaumen/p/3663584</t>
+          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/gehacktes-geschnetzeltes/planted-pulled-bbq/p/6703995</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E255" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F255" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Planted</t>
+        </is>
+      </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2.15/1kg</t>
+          <t>3.86/100g</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-gartenfruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>Pflaumen 2.15 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N255" t="inlineStr"/>
+          <t>Planted pulled BBQ 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -17897,7 +17897,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -17966,7 +17966,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -18035,7 +18035,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -18100,7 +18100,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -18173,7 +18173,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -18246,7 +18246,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -18311,7 +18311,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -18384,7 +18384,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -18453,7 +18453,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -18522,7 +18522,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -18664,7 +18664,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -18729,7 +18729,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -18798,31 +18798,31 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>6964029</t>
+          <t>5756801</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Betty Bossi Mungbohnen Sprossen</t>
+          <t>Betty Bossi Nüsslisalat</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-mungbohnen-sprossen/p/6964029</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-nuesslisalat/p/5756801</t>
         </is>
       </c>
       <c r="D270" t="n">
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -18831,12 +18831,12 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>2.83/100g</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -18856,42 +18856,46 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>Betty Bossi Mungbohnen Sprossen - Online kein Bestand 2.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N270" t="inlineStr"/>
+          <t>Betty Bossi Nüsslisalat 14% Aktion 5.95 Schweizer Franken statt 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>6803514</t>
+          <t>6964029</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Prix Garantie veganes Hack</t>
+          <t>Betty Bossi Mungbohnen Sprossen</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/gehacktes-geschnetzeltes/prix-garantie-veganes-hack/p/6803514</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-mungbohnen-sprossen/p/6964029</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -18900,12 +18904,12 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -18915,7 +18919,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -18925,46 +18929,42 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Prix Garantie veganes Hack 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N271" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Mungbohnen Sprossen - Online kein Bestand 2.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>6133999</t>
+          <t>6803514</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel</t>
+          <t>Prix Garantie veganes Hack</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-kuerbis-wuerfel/p/6133999</t>
+          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/gehacktes-geschnetzeltes/prix-garantie-veganes-hack/p/6803514</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E272" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -18973,12 +18973,12 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>0.83/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -18988,7 +18988,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -18998,46 +18998,46 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis-Würfel 3.30 Schweizer Franken</t>
+          <t>Prix Garantie veganes Hack 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>6638719</t>
+          <t>6133999</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Betty Bossi Hörnlisalat classic</t>
+          <t>Betty Bossi Kürbis-Würfel</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-hoernlisalat-classic/p/6638719</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-kuerbis-wuerfel/p/6133999</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E273" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -19046,12 +19046,12 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>1.22/100g</t>
+          <t>0.83/100g</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -19061,7 +19061,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19071,12 +19071,12 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Betty Bossi Hörnlisalat classic 3.95 Schweizer Franken</t>
+          <t>Betty Bossi Kürbis-Würfel 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -19086,31 +19086,31 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>5868410</t>
+          <t>6638719</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Heringsstücke mit Randen MSC</t>
+          <t>Betty Bossi Hörnlisalat classic</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/heringsstuecke-mit-randen-msc/p/5868410</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-hoernlisalat-classic/p/6638719</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -19119,12 +19119,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>1.22/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19134,7 +19134,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19149,7 +19149,7 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Heringsstücke mit Randen MSC 2.95 Schweizer Franken</t>
+          <t>Betty Bossi Hörnlisalat classic 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -19159,28 +19159,28 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>5756801</t>
+          <t>5868410</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Betty Bossi Nüsslisalat</t>
+          <t>Heringsstücke mit Randen MSC</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-nuesslisalat/p/5756801</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/heringsstuecke-mit-randen-msc/p/5868410</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -19192,12 +19192,12 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2.83/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19207,7 +19207,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19217,12 +19217,12 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Betty Bossi Nüsslisalat 14% Aktion 5.95 Schweizer Franken statt 6.95 Schweizer Franken</t>
+          <t>Heringsstücke mit Randen MSC 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -19232,7 +19232,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -19305,7 +19305,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -19374,7 +19374,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -19437,7 +19437,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -19510,7 +19510,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -19656,7 +19656,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -19727,7 +19727,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -19800,7 +19800,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -19873,7 +19873,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -19946,7 +19946,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20019,7 +20019,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20092,7 +20092,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20165,7 +20165,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20234,7 +20234,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20307,7 +20307,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20376,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20441,7 +20441,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20514,7 +20514,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20587,7 +20587,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20652,7 +20652,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20721,7 +20721,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20784,13 +20784,13 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kochäpfel 6.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Kochäpfel - Online kein Bestand 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20859,7 +20859,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -20932,7 +20932,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21005,7 +21005,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21078,7 +21078,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21143,7 +21143,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21216,7 +21216,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21287,7 +21287,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21360,7 +21360,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21423,7 +21423,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21496,7 +21496,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21569,7 +21569,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21642,7 +21642,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21788,7 +21788,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21861,7 +21861,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21930,7 +21930,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -21993,7 +21993,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -22058,7 +22058,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -22131,7 +22131,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -22200,7 +22200,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22265,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -22328,7 +22328,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -22401,129 +22401,129 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>4083022</t>
+          <t>6020083</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Gemüsebox</t>
+          <t>Primagusto Nüsslisalat</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-gemuesebox/p/4083022</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/primagusto-nuesslisalat/p/6020083</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>23.50</t>
-        </is>
-      </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>7.83/1kg</t>
-        </is>
-      </c>
-      <c r="I321" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Kilogramm</t>
-        </is>
-      </c>
-      <c r="J321" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>1kg</t>
-        </is>
-      </c>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Gemüsebox 23.50 Schweizer Franken</t>
+          <t>Primagusto Nüsslisalat 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6020083</t>
+          <t>4083022</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Primagusto Nüsslisalat</t>
+          <t>Naturaplan Bio Family Gemüsebox</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/primagusto-nuesslisalat/p/6020083</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-gemuesebox/p/4083022</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E322" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="H322" t="inlineStr"/>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>7.83/1kg</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Kilogramm</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Primagusto Nüsslisalat 4.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Family Gemüsebox 23.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -22742,7 +22742,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -22811,7 +22811,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -22880,7 +22880,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -22953,7 +22953,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -23018,7 +23018,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -23083,7 +23083,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -23156,32 +23156,32 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>5773713</t>
+          <t>6764726</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Betty Bossi Rotkraut gekocht</t>
+          <t>Prix Garantie Sauerkraut roh</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-rotkraut-gekocht/p/5773713</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/prix-garantie-sauerkraut-roh/p/6764726</t>
         </is>
       </c>
       <c r="D332" t="n">
+        <v>2</v>
+      </c>
+      <c r="E332" t="n">
         <v>5</v>
       </c>
-      <c r="E332" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F332" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -23189,12 +23189,12 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>0.30/100g</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -23204,7 +23204,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -23219,7 +23219,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Betty Bossi Rotkraut gekocht 4.50 Schweizer Franken</t>
+          <t>Prix Garantie Sauerkraut roh 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -23229,45 +23229,41 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>6764726</t>
+          <t>6525951</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Prix Garantie Sauerkraut roh</t>
+          <t>Marroni gekocht</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/prix-garantie-sauerkraut-roh/p/6764726</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/marroni-gekocht/p/6525951</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>5</v>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>0.30/100g</t>
+          <t>1.49/100g</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -23277,7 +23273,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -23287,56 +23283,56 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>Prix Garantie Sauerkraut roh 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Marroni gekocht 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>6525951</t>
+          <t>5773713</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Marroni gekocht</t>
+          <t>Betty Bossi Rotkraut gekocht</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/marroni-gekocht/p/6525951</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-rotkraut-gekocht/p/5773713</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E334" t="n">
-        <v>1</v>
-      </c>
-      <c r="F334" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>1.49/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -23346,7 +23342,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -23356,42 +23352,46 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>Marroni gekocht 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N334" t="inlineStr"/>
+          <t>Betty Bossi Rotkraut gekocht 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>6794616</t>
+          <t>4437751</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Nüssli &amp;amp; Rucola</t>
+          <t>Naturaplan Bio Pro Specie Rara Portulak</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-nuessli-rucola/p/6794616</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/naturaplan-bio-pro-specie-rara-portulak/p/4437751</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E335" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -23400,12 +23400,12 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>4.95/100g</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -23415,7 +23415,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -23425,43 +23425,39 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Nüssli &amp;amp; Rucola 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N335" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Pro Specie Rara Portulak 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>6870514</t>
+          <t>6794616</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Délicorn Bio Gehacktes</t>
+          <t>Naturaplan Bio Nüssli &amp;amp; Rucola</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/gehacktes-geschnetzeltes/delicorn-bio-gehacktes/p/6870514</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-nuessli-rucola/p/6794616</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E336" t="n">
         <v>5</v>
@@ -23473,12 +23469,12 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2.25/100g</t>
+          <t>4.95/100g</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -23488,7 +23484,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -23498,60 +23494,60 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Délicorn Bio Gehacktes 4.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Nüssli &amp;amp; Rucola 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>7048923</t>
+          <t>6870514</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Schnitzel</t>
+          <t>Délicorn Bio Gehacktes</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/schnitzel-nuggets/garden-gourmet-sensational-schnitzel/p/7048923</t>
+          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/gehacktes-geschnetzeltes/delicorn-bio-gehacktes/p/6870514</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>3.86/100g</t>
+          <t>2.25/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -23561,7 +23557,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -23571,60 +23567,60 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Schnitzel 6.95 Schweizer Franken</t>
+          <t>Délicorn Bio Gehacktes 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>4437751</t>
+          <t>7048923</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Specie Rara Portulak</t>
+          <t>Garden Gourmet Sensational Schnitzel</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/naturaplan-bio-pro-specie-rara-portulak/p/4437751</t>
+          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/schnitzel-nuggets/garden-gourmet-sensational-schnitzel/p/7048923</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E338" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>3.86/100g</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -23634,7 +23630,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -23644,18 +23640,22 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Specie Rara Portulak 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N338" t="inlineStr"/>
+          <t>Garden Gourmet Sensational Schnitzel 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -23720,7 +23720,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -23789,7 +23789,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -23852,7 +23852,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -23925,7 +23925,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -23998,7 +23998,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -24071,7 +24071,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -24140,7 +24140,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -24213,7 +24213,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -24282,7 +24282,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -24355,31 +24355,31 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>6984842</t>
+          <t>4234715</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Betty Bossi insalata tricolore</t>
+          <t>Naturaplan Bio Topinambur</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-insalata-tricolore/p/6984842</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-topinambur/p/4234715</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E349" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -24393,7 +24393,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>1.84/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -24403,7 +24403,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -24413,46 +24413,42 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>Betty Bossi insalata tricolore 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N349" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Topinambur 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>4234715</t>
+          <t>6984842</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Topinambur</t>
+          <t>Betty Bossi insalata tricolore</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-topinambur/p/4234715</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-insalata-tricolore/p/6984842</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -24466,7 +24462,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>1.84/100g</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -24476,7 +24472,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -24486,18 +24482,22 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Topinambur 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N350" t="inlineStr"/>
+          <t>Betty Bossi insalata tricolore 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -24570,7 +24570,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -24643,7 +24643,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -24716,7 +24716,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -24789,45 +24789,45 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>6325173</t>
+          <t>4158362</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Vivera Vissticks wie Fischstäbchen vegan</t>
+          <t>Seeberger Soft Datteln getrocknet</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/fisch/vivera-vissticks-wie-fischstaebchen-vegan/p/6325173</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/seeberger-soft-datteln-getrocknet/p/4158362</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E355" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Vivera</t>
+          <t>Seeberger</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>1.60/100g</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -24837,7 +24837,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -24847,60 +24847,56 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'fisch']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>Vivera Vissticks wie Fischstäbchen vegan 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N355" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Seeberger Soft Datteln getrocknet 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>4158362</t>
+          <t>6325173</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Seeberger Soft Datteln getrocknet</t>
+          <t>Vivera Vissticks wie Fischstäbchen vegan</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/seeberger-soft-datteln-getrocknet/p/4158362</t>
+          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/fisch/vivera-vissticks-wie-fischstaebchen-vegan/p/6325173</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E356" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Seeberger</t>
+          <t>Vivera</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>1.60/100g</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -24910,7 +24906,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -24920,18 +24916,22 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'fisch']</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Seeberger Soft Datteln getrocknet 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N356" t="inlineStr"/>
+          <t>Vivera Vissticks wie Fischstäbchen vegan 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25000,7 +25000,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25049,7 +25049,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25120,7 +25120,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25193,7 +25193,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25266,7 +25266,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25339,7 +25339,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25404,7 +25404,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25477,7 +25477,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25550,7 +25550,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25603,7 +25603,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25668,7 +25668,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25737,7 +25737,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25806,7 +25806,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25879,7 +25879,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -25944,7 +25944,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26017,7 +26017,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26086,7 +26086,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26153,7 +26153,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26226,7 +26226,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26277,7 +26277,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26350,7 +26350,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26423,7 +26423,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26492,7 +26492,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26565,7 +26565,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26638,7 +26638,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26707,7 +26707,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26780,7 +26780,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26853,7 +26853,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26918,7 +26918,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -26987,7 +26987,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27127,7 +27127,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27200,7 +27200,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27273,7 +27273,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27346,7 +27346,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27415,7 +27415,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27488,7 +27488,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27559,7 +27559,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27632,7 +27632,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27701,7 +27701,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27768,7 +27768,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27821,7 +27821,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27890,7 +27890,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -27963,7 +27963,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -28030,145 +28030,145 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>6722900</t>
+          <t>3090881</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bratwurstalternative</t>
+          <t>Boden Kohlrabi ca. 1kg</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/wuerste/the-green-mountain-plant-based-bratwurstalternative/p/6722900</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/boden-kohlrabi-ca/p/3090881</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E402" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>The GREEN MOUNTAIN</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>3.95/1kg</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
         </is>
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bratwurstalternative 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N402" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Boden Kohlrabi ca. 1kg 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>3090881</t>
+          <t>6722900</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Boden Kohlrabi ca. 1kg</t>
+          <t>The Green Mountain plant-based Bratwurstalternative</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/boden-kohlrabi-ca/p/3090881</t>
+          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/wuerste/the-green-mountain-plant-based-bratwurstalternative/p/6722900</t>
         </is>
       </c>
       <c r="D403" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E403" t="n">
-        <v>4</v>
-      </c>
-      <c r="F403" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>The GREEN MOUNTAIN</t>
+        </is>
+      </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>3.95/1kg</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch', 'wuerste']</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>Boden Kohlrabi ca. 1kg 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N403" t="inlineStr"/>
+          <t>The Green Mountain plant-based Bratwurstalternative 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -28231,7 +28231,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -28300,7 +28300,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -28373,7 +28373,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -28446,7 +28446,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -28519,7 +28519,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -28592,7 +28592,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -28661,7 +28661,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -28734,7 +28734,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -28801,7 +28801,7 @@
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -28870,7 +28870,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -28943,7 +28943,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29016,7 +29016,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29089,7 +29089,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29158,7 +29158,7 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29231,7 +29231,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29296,7 +29296,7 @@
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29365,7 +29365,7 @@
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29438,7 +29438,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29507,7 +29507,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29653,7 +29653,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29718,7 +29718,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29791,7 +29791,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29860,7 +29860,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29929,7 +29929,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -29996,7 +29996,7 @@
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -30061,7 +30061,7 @@
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -30134,208 +30134,208 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>7040896</t>
+          <t>4683859</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Greenforce Bio vegan Frickadellen</t>
+          <t>Endivien Frisée-Salat 1 Stück</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/greenforce-bio-vegan-frickadellen/p/7040896</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/endivien-frisee-salat-1-stueck/p/4683859</t>
         </is>
       </c>
       <c r="D432" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
       </c>
-      <c r="F432" t="inlineStr">
-        <is>
-          <t>GREENFORCE</t>
-        </is>
-      </c>
+      <c r="F432" t="inlineStr"/>
       <c r="G432" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>5.00/100g</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>Greenforce Bio vegan Frickadellen 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N432" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Endivien Frisée-Salat 1 Stück 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>7073845</t>
+          <t>7040896</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Birnen Rocha IP-Suisse ca. 1kg</t>
+          <t>Greenforce Bio vegan Frickadellen</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/birnen-rocha-ip-suisse-ca/p/7073845</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/greenforce-bio-vegan-frickadellen/p/7040896</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>1</v>
+      </c>
       <c r="E433" t="n">
-        <v>0</v>
-      </c>
-      <c r="F433" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>GREENFORCE</t>
+        </is>
+      </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>3.95/1kg</t>
+          <t>5.00/100g</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>Birnen Rocha IP-Suisse ca. 1kg 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N433" t="inlineStr"/>
+          <t>Greenforce Bio vegan Frickadellen 3.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>4683859</t>
+          <t>7073845</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Endivien Frisée-Salat 1 Stück</t>
+          <t>Birnen Rocha IP-Suisse ca. 1kg</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/endivien-frisee-salat-1-stueck/p/4683859</t>
-        </is>
-      </c>
-      <c r="D434" t="n">
-        <v>9</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/birnen-rocha-ip-suisse-ca/p/7073845</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr"/>
       <c r="E434" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>3.95/1kg</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>Endivien Frisée-Salat 1 Stück 2.95 Schweizer Franken</t>
+          <t>Birnen Rocha IP-Suisse ca. 1kg 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -30406,7 +30406,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -30471,7 +30471,7 @@
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -30544,7 +30544,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -30617,7 +30617,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -30690,7 +30690,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -30763,7 +30763,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -30832,7 +30832,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -30905,7 +30905,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -30972,7 +30972,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31029,7 +31029,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31096,7 +31096,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31169,7 +31169,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31238,7 +31238,7 @@
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31307,7 +31307,7 @@
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31445,7 +31445,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31518,7 +31518,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31587,7 +31587,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31660,7 +31660,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31733,7 +31733,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31806,7 +31806,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31879,7 +31879,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -31950,7 +31950,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32021,7 +32021,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32094,7 +32094,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32145,7 +32145,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32214,7 +32214,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32279,7 +32279,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32348,7 +32348,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32415,7 +32415,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32488,7 +32488,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32561,7 +32561,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32632,7 +32632,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32701,7 +32701,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32774,7 +32774,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32841,7 +32841,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32910,7 +32910,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -32983,7 +32983,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33056,7 +33056,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33121,7 +33121,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33194,7 +33194,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33267,7 +33267,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33336,7 +33336,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33409,7 +33409,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33476,7 +33476,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33549,7 +33549,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33614,7 +33614,7 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33681,7 +33681,7 @@
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33754,7 +33754,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33827,7 +33827,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -33965,112 +33965,112 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>7022105</t>
+          <t>3091180</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Lotao Bio Veggie Burger</t>
+          <t>Batavia</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/lotao-bio-veggie-burger/p/7022105</t>
-        </is>
-      </c>
-      <c r="D487" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/batavia/p/3091180</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>1</v>
+      </c>
       <c r="E487" t="n">
-        <v>0</v>
-      </c>
-      <c r="F487" t="inlineStr">
-        <is>
-          <t>Lotao</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>3.95/100g</t>
+          <t>2.20/1ST</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>Lotao Bio Veggie Burger 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N487" t="inlineStr"/>
+          <t>Batavia 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>3433978</t>
+          <t>7022105</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Vanini Marrons glacés 12 Stück</t>
+          <t>Lotao Bio Veggie Burger</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/schokolade-suessigkeiten/vanini-marrons-glaces-12-stueck/p/3433978</t>
-        </is>
-      </c>
-      <c r="D488" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/fleisch-fisch/pflanzliche-alternativen-zu-fleisch/lotao-bio-veggie-burger/p/7022105</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr"/>
       <c r="E488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Vanini</t>
+          <t>Lotao</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>8.31/100g</t>
+          <t>3.95/100g</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -34080,7 +34080,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -34090,87 +34090,87 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'schokolade-suessigkeiten']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>Vanini Marrons glacés 12 Stück 17.95 Schweizer Franken</t>
+          <t>Lotao Bio Veggie Burger 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>3091180</t>
+          <t>3433978</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Batavia</t>
+          <t>Vanini Marrons glacés 12 Stück</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/batavia/p/3091180</t>
+          <t>/de/lebensmittel/suesses-snacks/schokolade-suessigkeiten/vanini-marrons-glaces-12-stueck/p/3433978</t>
         </is>
       </c>
       <c r="D489" t="n">
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>5</v>
-      </c>
-      <c r="F489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>Vanini</t>
+        </is>
+      </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>17.95</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>2.20/1ST</t>
+          <t>8.31/100g</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'schokolade-suessigkeiten']</t>
         </is>
       </c>
       <c r="M489" t="inlineStr">
         <is>
-          <t>Batavia 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N489" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Vanini Marrons glacés 12 Stück 17.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -34239,7 +34239,7 @@
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -34312,7 +34312,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -34383,7 +34383,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -34446,7 +34446,7 @@
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -34517,7 +34517,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
@@ -34588,7 +34588,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2022-12-18 12:57:22</t>
+          <t>2022-12-18 20:51:29</t>
         </is>
       </c>
     </row>
